--- a/Nhóm/TestCaseForScenario3.xlsx
+++ b/Nhóm/TestCaseForScenario3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448d5621545efbd3/Thang/HOCTAP/2019-2020/HKII/KTPM/Nhóm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6551987-0D88-4CF6-9FB4-00835815212C}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7364EF33-2ACF-487D-9DD4-EC1B5FA7E99F}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="33">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Loại bỏ sản phẩm ra khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>La Quốc Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Quốc</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,6 +173,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -289,9 +302,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,59 +313,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,7 +654,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -656,44 +669,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -709,11 +724,11 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -737,30 +752,30 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="13"/>
+      <c r="F6" s="28">
         <f ca="1">NOW()</f>
-        <v>43971.675037847221</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+        <v>43975.685062615739</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -776,93 +791,93 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -878,162 +893,199 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D18:E18"/>
@@ -1050,43 +1102,6 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1100,7 +1115,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1115,44 +1130,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1168,11 +1185,11 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1196,30 +1213,30 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="13"/>
+      <c r="F6" s="28">
         <f ca="1">NOW()</f>
-        <v>43971.675037847221</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+        <v>43975.685062615739</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -1235,93 +1252,93 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1337,167 +1354,202 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -1506,46 +1558,11 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1558,7 +1575,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1573,44 +1590,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1626,11 +1645,11 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1654,30 +1673,30 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="13"/>
+      <c r="F6" s="28">
         <f ca="1">NOW()</f>
-        <v>43971.675037847221</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+        <v>43975.685062615739</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -1693,93 +1712,93 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1795,167 +1814,202 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -1964,46 +2018,11 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2016,7 +2035,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2031,44 +2050,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -2084,11 +2105,11 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2112,30 +2133,30 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25">
+      <c r="E6" s="13"/>
+      <c r="F6" s="28">
         <f ca="1">NOW()</f>
-        <v>43971.675037847221</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="21" t="s">
+        <v>43975.685062615739</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -2151,93 +2172,93 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -2253,167 +2274,202 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -2422,46 +2478,11 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Nhóm/TestCaseForScenario3.xlsx
+++ b/Nhóm/TestCaseForScenario3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/448d5621545efbd3/Thang/HOCTAP/2019-2020/HKII/KTPM/Nhóm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF0D73A3-9C0B-4BD5-93F6-EEB99222480F}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{BC02C4DA-0B47-4B08-9933-E545AF2A843E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A19258DA-F5C4-4C40-9664-FB9ED1EFBD28}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -368,6 +368,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -375,19 +405,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -401,37 +428,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Ghi chú" xfId="1" builtinId="10"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,13 +709,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -727,49 +730,49 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -782,11 +785,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -797,7 +800,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -810,32 +813,32 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
+      <c r="E6" s="24"/>
+      <c r="F6" s="27">
         <v>43997</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -848,100 +851,100 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -954,206 +957,169 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="34.5" customHeight="1">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="31.5" customHeight="1">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D18:E18"/>
@@ -1170,23 +1136,63 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383C97D5-11C1-4BE1-8A8F-97BD99174FB6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -1196,49 +1202,49 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1251,11 +1257,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1266,7 +1272,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1279,33 +1285,33 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
+      <c r="E6" s="24"/>
+      <c r="F6" s="27">
         <f ca="1">NOW()</f>
-        <v>43998.598180324072</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+        <v>43999.467017129631</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1318,100 +1324,100 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1424,169 +1430,214 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="32.25" customHeight="1">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="31.5" customHeight="1">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
@@ -1595,67 +1646,25 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141AD72A-A2E4-4D11-A50D-49F4BC211463}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -1665,49 +1674,49 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1720,11 +1729,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1735,7 +1744,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1748,33 +1757,33 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
+      <c r="E6" s="24"/>
+      <c r="F6" s="27">
         <f ca="1">NOW()</f>
-        <v>43998.598180324072</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+        <v>43999.467017129631</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1787,102 +1796,102 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" customHeight="1">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1895,169 +1904,214 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="33" customHeight="1">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="31.5" customHeight="1">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
@@ -2066,67 +2120,25 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B44290-16C0-4DB8-94B2-02B0FD862747}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
@@ -2136,49 +2148,49 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2191,11 +2203,11 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2206,7 +2218,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2219,33 +2231,33 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="29">
+      <c r="E6" s="24"/>
+      <c r="F6" s="27">
         <f ca="1">NOW()</f>
-        <v>43998.598180324072</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="13" t="s">
+        <v>43999.467017129631</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2258,102 +2270,102 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="2"/>
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
       <c r="F12" s="7">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2366,169 +2378,214 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="33" customHeight="1">
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="28" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="30.75" customHeight="1">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="28" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
@@ -2537,54 +2594,9 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>